--- a/jury.xlsx
+++ b/jury.xlsx
@@ -665,7 +665,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.67"/>
@@ -689,7 +689,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="8.67"/>
@@ -11478,7 +11478,7 @@
   <dimension ref="A1:AM249"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11512,6 +11512,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="1" width="5.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="3.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="9.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21932,14 +21933,14 @@
   <dimension ref="A1:AK249"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.67"/>
@@ -21947,16 +21948,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="4.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="4.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="3.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="3.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="1" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="5.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="7.67"/>
@@ -21966,6 +21967,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="33" style="1" width="3.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="9.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
